--- a/prayer_schedule.xlsx
+++ b/prayer_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICCH_\Desktop\ptd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C75A7E-2563-41DF-9DF9-C46772C29094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF4A905-D570-4F6B-9893-117CF4AA13B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="30" windowWidth="21600" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30750" yWindow="1755" windowWidth="21600" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prayer_times" sheetId="1" r:id="rId1"/>
@@ -643,8 +643,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6382,7 +6382,7 @@
         <v>0.22361111111111112</v>
       </c>
       <c r="F96" s="12">
-        <v>0.24305555555555555</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="G96" s="6">
         <v>0.28263888888888888</v>
@@ -6442,7 +6442,7 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="F97" s="18">
-        <v>0.24305555555555555</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="G97" s="17">
         <v>0.28125</v>
@@ -6502,7 +6502,7 @@
         <v>0.22013888888888888</v>
       </c>
       <c r="F98" s="21">
-        <v>0.2361111111111111</v>
+        <v>0.23402777777777778</v>
       </c>
       <c r="G98" s="6">
         <v>0.27986111111111112</v>
@@ -6562,7 +6562,7 @@
         <v>0.21875</v>
       </c>
       <c r="F99" s="12">
-        <v>0.2361111111111111</v>
+        <v>0.2326388888888889</v>
       </c>
       <c r="G99" s="6">
         <v>0.27847222222222223</v>
@@ -6622,7 +6622,7 @@
         <v>0.21736111111111112</v>
       </c>
       <c r="F100" s="12">
-        <v>0.2361111111111111</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="G100" s="6">
         <v>0.27708333333333335</v>
@@ -6682,7 +6682,7 @@
         <v>0.21597222222222223</v>
       </c>
       <c r="F101" s="12">
-        <v>0.2361111111111111</v>
+        <v>0.2298611111111111</v>
       </c>
       <c r="G101" s="6">
         <v>0.27569444444444446</v>
@@ -6742,7 +6742,7 @@
         <v>0.21458333333333332</v>
       </c>
       <c r="F102" s="12">
-        <v>0.2361111111111111</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="G102" s="6">
         <v>0.27500000000000002</v>
@@ -6802,7 +6802,7 @@
         <v>0.21319444444444444</v>
       </c>
       <c r="F103" s="12">
-        <v>0.2361111111111111</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="G103" s="6">
         <v>0.27361111111111114</v>
@@ -6862,7 +6862,7 @@
         <v>0.21180555555555555</v>
       </c>
       <c r="F104" s="18">
-        <v>0.2361111111111111</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="G104" s="17">
         <v>0.2722222222222222</v>
